--- a/medicine/Mort/Cimetière_communal_de_Bobigny/Cimetière_communal_de_Bobigny.xlsx
+++ b/medicine/Mort/Cimetière_communal_de_Bobigny/Cimetière_communal_de_Bobigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Bobigny</t>
+          <t>Cimetière_communal_de_Bobigny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière communal de Bobigny est un cimetière se trouvant à Bobigny[1]. C'est l'un des deux cimetières de la commune, avec le cimetière musulman de Bobigny.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière communal de Bobigny est un cimetière se trouvant à Bobigny. C'est l'un des deux cimetières de la commune, avec le cimetière musulman de Bobigny.
 Il est accessible par le boulevard Maurice-Thorez et la station de métro Bobigny - Pablo Picasso sur la ligne 5 du métro de Paris.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Bobigny</t>
+          <t>Cimetière_communal_de_Bobigny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On y trouve un monument aux Morts de la Première Guerre mondiale[2], où l'on recensait 190 victimes. Il s'y trouve aussi un carré militaire à la mémoire des trente-neuf victimes balbynienne de la Seconde Guerre mondiale[3].
-Un jardin du souvenir y a été aménagé[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On y trouve un monument aux Morts de la Première Guerre mondiale, où l'on recensait 190 victimes. Il s'y trouve aussi un carré militaire à la mémoire des trente-neuf victimes balbynienne de la Seconde Guerre mondiale.
+Un jardin du souvenir y a été aménagé.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Bobigny</t>
+          <t>Cimetière_communal_de_Bobigny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière communal de Bobigny fut créé  en  1854[5]. Il est administré par le Syndicat intercommunal funéraire de la région parisienne, dont la ville est membre[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière communal de Bobigny fut créé  en  1854. Il est administré par le Syndicat intercommunal funéraire de la région parisienne, dont la ville est membre.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Bobigny</t>
+          <t>Cimetière_communal_de_Bobigny</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plusieurs maires de la ville y ont été inhumés[7]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plusieurs maires de la ville y ont été inhumés:
 Bernard Birsinger,
 René Guesnier,
 Edmée Boudier,
@@ -587,7 +605,7 @@
 Jean Merie,
 Auguste Hippolyte Jollin.
 Autre personnalité :
-Marcel Broucxau, mort le 5 août 1944 à Neuengamme[8]. Son nom est attribué à la rue Neuve par délibération du 31 juillet 1947[9].</t>
+Marcel Broucxau, mort le 5 août 1944 à Neuengamme. Son nom est attribué à la rue Neuve par délibération du 31 juillet 1947.</t>
         </is>
       </c>
     </row>
